--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'chika', 'naur', 'eklabool', 'anda'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'naur', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', '$', 'chika', 'shimenet', 'anda'}</t>
+          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'chika', 'naur', 'eklabool', 'anda'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'andamhie', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'[', ',', '=', ')', ';'}</t>
+          <t>{';', '[', ')', ',', '='}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{',', '=', ')', ';'}</t>
+          <t>{';', ')', ',', '='}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'-', '//=', '*=', ':', '//', 'to', '}', '/', ']', '**=', ')', '+', '&gt;=', '-=', '||', '&lt;', '+=', '==', '&amp;&amp;', 'step', ',', '/=', '&lt;=', '*', ';', '%', '!=', '&gt;', '%=', '=', '**'}</t>
+          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'korik', 'eme'}</t>
+          <t>{'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '(', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'step', ',', '&lt;=', '*', ';', '%', '[', '&gt;', '!=', '**'}</t>
+          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '[', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'shimenet', 'chika', 'anda'}</t>
+          <t>{'shimenet', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'keri', 'serve', 'naur', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'id', 'serve', 'pak', '--', 'chika', 'push', 'eklabool', '++', '}', 'naur', 'adelete', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'==', '-', '&amp;&amp;', '&lt;=', '%', '*', '//', '||', '!=', '&gt;', '/', '+', '&gt;=', '&lt;', '**'}</t>
+          <t>{'*', '+', '&gt;=', '/', '==', '%', '&lt;=', '//', '**', '&gt;', '!=', '&amp;&amp;', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'id', 'anda_literal', 'chika_literal', 'korik', 'eme', 'len', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'korik', 'eme', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(id &lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '(', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'step', ',', '&lt;=', '*', ';', '%', '[', '&gt;', '!=', '**'}</t>
+          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'korik', 'eme'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'--', 'id', '++'}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'--', 'id', '++'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'serve', 'id', 'betsung', 'pak', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'gogogo', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '[', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'id', 'andamhie', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'ganern', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', '[', ')', ',', '='}</t>
+          <t>{'=', ')', '[', ';', ','}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ')', ',', '='}</t>
+          <t>{'=', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
+          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'eme', 'korik'}</t>
+          <t>{'korik', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'andamhie', 'naur', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'id', 'serve', 'pak', '--', 'chika', 'push', 'eklabool', '++', '}', 'naur', 'adelete', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
+          <t>{'++', 'forda', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'versa', 'serve', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'*', '+', '&gt;=', '/', '==', '%', '&lt;=', '//', '**', '&gt;', '!=', '&amp;&amp;', '-', '&lt;', '||'}</t>
+          <t>{'*', '==', '//', '&lt;=', '&amp;&amp;', '-', '&gt;', '&lt;', '&gt;=', '!=', '||', '/', '+', '%', '**'}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
+          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'(', '==', ')', '&lt;=', ':', 'to', '[', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'eme', 'anda_literal'}</t>
+          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'--', 'id', '++'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'push', 'eklabool', '--', 'chika', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'--', 'id', '++'}</t>
+          <t>{'++', '--', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'forda', 'serve', 'id', 'betsung', 'pak', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'gogogo', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', '||', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '[', '//=', ']', '%=', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '+='}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'andamhie', 'id', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>First(adele ( id , &lt;assignment-values&gt; ) ;)</t>
+          <t>First(adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'anda', 'chika'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -4661,15 +4661,35 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>First({ &lt;array-elements&gt; })</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>First({)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>{'{'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>First(λ-λ) U Follow(&lt;push-values&gt; )</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Follow(&lt;push-values&gt; )</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>{';'}</t>
         </is>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'=', ')', '[', ';', ','}</t>
+          <t>{';', ')', '=', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'=', ')', ',', ';'}</t>
+          <t>{';', ')', '=', ','}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
+          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'korik', 'eme'}</t>
+          <t>{'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
+          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>First(= id)</t>
+          <t>First(= id &lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'shimenet', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'naur', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'versa', 'serve', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'keri', 'push', '++', 'anda', 'naur', 'adele', 'andamhie', '--', 'serve', 'forda', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'*', '==', '//', '&lt;=', '&amp;&amp;', '-', '&gt;', '&lt;', '&gt;=', '!=', '||', '/', '+', '%', '**'}</t>
+          <t>{'%', '!=', '**', '&gt;', '&lt;=', '&amp;&amp;', '==', '&lt;', '/', '&gt;=', '||', '-', '*', '+', '//'}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', '[', ',', 'to', '%', '}', '==', '//', '&gt;', '||', '/', ']', '(', '**'}</t>
+          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'korik', 'chika_literal', 'eme', 'andamhie_literal', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'--', '++', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'++', '--', 'id'}</t>
+          <t>{'--', '++', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'amaccana', 'serve', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', '[', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika', 'id'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'[', '('}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', ')', '=', ',', '['}</t>
+          <t>{';', '[', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>First(( &lt;parameters&gt; ))</t>
+          <t>First(&lt;array-dec&gt; ( &lt;parameters&gt; ))</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>First(&lt;array-dec&gt;)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{';', '[', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ')', '=', ','}</t>
+          <t>{';', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
+          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
+          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'shimenet', 'chika'}</t>
+          <t>{'andamhie', 'chika', 'anda', 'eklabool', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'naur', 'andamhie', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'naur', 'chika'}</t>
+          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'keri', 'push', '++', 'anda', 'naur', 'adele', 'andamhie', '--', 'serve', 'forda', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**', '&gt;', '&lt;=', '&amp;&amp;', '==', '&lt;', '/', '&gt;=', '||', '-', '*', '+', '//'}</t>
+          <t>{'-', '==', '/', '&gt;=', '**', '&lt;=', '*', '!=', '+', '%', '&gt;', '&lt;', '//', '&amp;&amp;', '||'}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
+          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
+          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '&lt;=', ',', '[', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '(', '*', 'step', '-'}</t>
+          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'chika_literal', 'korik', 'anda_literal', 'eme'}</t>
+          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'--', '++', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'id', 'andamhie', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'--', '++', 'id'}</t>
+          <t>{'id', '++', '--'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'amaccana', 'serve', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'forda', '--', 'pak', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '[', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'id', 'chika'}</t>
+          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
+          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', '[', '(', '=', ')', ','}</t>
+          <t>{')', '(', ',', '[', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{';', '[', '(', '=', ')', ','}</t>
+          <t>{')', '(', ',', '[', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', '(', '=', ')', ','}</t>
+          <t>{')', ',', '(', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>First(&lt;return-type&gt; id ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;)</t>
+          <t>First(&lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'andamhie', 'chika', 'anda', 'eklabool', 'shimenet'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'naur', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'anda'}</t>
+          <t>{'push', 'keri', 'naur', '++', '--', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'-', '==', '/', '&gt;=', '**', '&lt;=', '*', '!=', '+', '%', '&gt;', '&lt;', '//', '&amp;&amp;', '||'}</t>
+          <t>{'&lt;=', '//', '%', '&gt;=', '||', '-', '!=', '*', '**', '&lt;', '==', '&gt;', '/', '&amp;&amp;', '+'}</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
+          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{';', '[', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '(', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'chika_literal', 'eme', 'anda_literal', 'andamhie_literal', 'korik'}</t>
+          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'id', '++', '--'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'keri', 'forda'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'id', '++', '--'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'forda', '--', 'pak', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '[', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'id', 'chika', 'anda', 'eklabool', 'andamhie'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'eklabool', 'chika', 'anda', 'andamhie'}</t>
+          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{')', '(', ',', '[', '=', ';'}</t>
+          <t>{')', '=', ',', '[', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{')', '(', ',', '[', '=', ';'}</t>
+          <t>{')', '=', ',', '[', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{')', ',', '(', '=', ';'}</t>
+          <t>{')', '=', ',', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>First([ &lt;array-values&gt; ] &lt;2d-index&gt;)</t>
+          <t>First([ &lt;array-values&gt; ] &lt;multi-index&gt;)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>First([ &lt;array-values&gt; ] &lt;3d-index&gt;)</t>
+          <t>First([ &lt;array-values&gt; ] &lt;multi-index&gt;)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;2d-index&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;multi-index&gt; )</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Follow(&lt;2d-index&gt; )</t>
+          <t>Follow(&lt;multi-index&gt; )</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>First([ &lt;array-values&gt; ])</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>First([)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'['}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;3d-index&gt;  )</t>
+          <t>First(anda_literal)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Follow(&lt;3d-index&gt;  )</t>
+          <t>First(anda_literal)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
+          <t>{'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(andamhie_literal)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(andamhie_literal)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>First(anda_literal)</t>
+          <t>First(chika_literal &lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>First(anda_literal)</t>
+          <t>First(chika_literal)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'anda_literal'}</t>
+          <t>{'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>First(andamhie_literal)</t>
+          <t>First(&lt;eklabool&gt;)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>First(andamhie_literal)</t>
+          <t>First(&lt;eklabool&gt;)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'andamhie_literal'}</t>
+          <t>{'korik', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>First(chika_literal &lt;array-indexing&gt;)</t>
+          <t>First(korik)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>First(chika_literal)</t>
+          <t>First(korik)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'chika_literal'}</t>
+          <t>{'korik'}</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>First(&lt;eklabool&gt;)</t>
+          <t>First(eme)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>First(&lt;eklabool&gt;)</t>
+          <t>First(eme)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'eme', 'korik'}</t>
+          <t>{'eme'}</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>First(korik)</t>
+          <t>First(&lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>First(korik)</t>
+          <t>First(&lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'korik'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>First(eme)</t>
+          <t>First(λ-λ) U Follow(&lt;func-array&gt;   )</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>First(eme)</t>
+          <t>Follow(&lt;func-array&gt;   )</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'eme'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>First(&lt;func-array-value&gt;)</t>
+          <t>First(( &lt;arguments&gt; ))</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>First(&lt;func-array-value&gt;)</t>
+          <t>First(()</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;func-array&gt;   )</t>
+          <t>First(&lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-array&gt;   )</t>
+          <t>First(&lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>First(( &lt;arguments&gt; ))</t>
+          <t>First(id &lt;var-init-tail&gt; &lt;multi-init-values&gt;)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>First(&lt;array-indexing&gt;)</t>
+          <t>First(= &lt;init-values&gt;)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>First(&lt;array-indexing&gt;)</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>First(id &lt;var-init-tail&gt; &lt;multi-init-values&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;var-init-tail&gt;  )</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>Follow(&lt;var-init-tail&gt;  )</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>First(= &lt;init-values&gt;)</t>
+          <t>First(, id &lt;multi-init-values-tail&gt; &lt;multi-init-values&gt;)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>First(,)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;var-init-tail&gt;  )</t>
+          <t>First(λ-λ) U Follow(&lt;multi-init-values&gt; )</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Follow(&lt;var-init-tail&gt;  )</t>
+          <t>Follow(&lt;multi-init-values&gt; )</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>First(, id &lt;multi-init-values-tail&gt; &lt;multi-init-values&gt;)</t>
+          <t>First(= &lt;init-values&gt;)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>First(,)</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;multi-init-values&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;multi-init-values-tail&gt; )</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-init-values&gt; )</t>
+          <t>Follow(&lt;multi-init-values-tail&gt; )</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>First(= &lt;init-values&gt;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;multi-init-values-tail&gt; )</t>
+          <t>First(= { &lt;array-elements&gt; })</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-init-values-tail&gt; )</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(= id &lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>First(= { &lt;array-elements&gt; })</t>
+          <t>First(λ-λ) U Follow(&lt;array-init&gt; )</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>Follow(&lt;array-init&gt; )</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>First(= id &lt;func-array-value&gt;)</t>
+          <t>First(&lt;array-values&gt; &lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>First(&lt;array-values&gt;)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;array-init&gt; )</t>
+          <t>First({ &lt;array-elements&gt; } &lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-init&gt; )</t>
+          <t>First({)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>First(&lt;array-values&gt; &lt;extra-array-value&gt;)</t>
+          <t>First(, &lt;array-values&gt; &lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>First(&lt;array-values&gt;)</t>
+          <t>First(,)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>First({ &lt;array-elements&gt; } &lt;extra-array-value&gt;)</t>
+          <t>First(, { &lt;array-elements&gt; } &lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>First({)</t>
+          <t>First(,)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'{'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>First(, &lt;array-values&gt; &lt;extra-array-value&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;extra-array-value&gt; )</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>First(,)</t>
+          <t>Follow(&lt;extra-array-value&gt; )</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>First(, { &lt;array-elements&gt; } &lt;extra-array-value&gt;)</t>
+          <t>First(&lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>First(,)</t>
+          <t>First(&lt;return-type&gt;)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'shimenet', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;extra-array-value&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;func-def&gt; )</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Follow(&lt;extra-array-value&gt; )</t>
+          <t>Follow(&lt;func-def&gt; )</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>First(&lt;return-type&gt; id &lt;array-dec&gt; ( &lt;parameters&gt; ) { &lt;func-body&gt; } &lt;func-def&gt;)</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>First(&lt;return-type&gt;)</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'shimenet'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;func-def&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;func-body&gt; )</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-def&gt; )</t>
+          <t>Follow(&lt;func-body&gt; )</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(&lt;local-dec-init&gt; &lt;array-assign&gt; &lt;local-dec&gt;)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(&lt;local-dec-init&gt;)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;func-body&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;local-dec&gt; )</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-body&gt; )</t>
+          <t>Follow(&lt;local-dec&gt; )</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec-init&gt; &lt;array-assign&gt; &lt;local-dec&gt;)</t>
+          <t>First(&lt;naur-case&gt; &lt;data-type&gt; &lt;var-init&gt; ;)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec-init&gt;)</t>
+          <t>First(&lt;naur-case&gt;)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;local-dec&gt; )</t>
+          <t>First(&lt;data-type&gt; id &lt;array-dec&gt; &lt;array-init&gt; ;)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Follow(&lt;local-dec&gt; )</t>
+          <t>First(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>First(&lt;naur-case&gt; &lt;data-type&gt; &lt;var-init&gt; ;)</t>
+          <t>First(&lt;arguments-value&gt; &lt;multi-arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>First(&lt;naur-case&gt;)</t>
+          <t>First(&lt;arguments-value&gt;)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool', 'naur'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt; id &lt;array-dec&gt; &lt;array-init&gt; ;)</t>
+          <t>First(λ-λ) U Follow(&lt;arguments&gt; )</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt;)</t>
+          <t>Follow(&lt;arguments&gt; )</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>First(&lt;arguments-value&gt; &lt;multi-arguments-value&gt;)</t>
+          <t>First(, &lt;arguments-value&gt; &lt;multi-arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>First(&lt;arguments-value&gt;)</t>
+          <t>First(,)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{','}</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;arguments&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;multi-arguments-value&gt; )</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Follow(&lt;arguments&gt; )</t>
+          <t>Follow(&lt;multi-arguments-value&gt; )</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>First(, &lt;arguments-value&gt; &lt;multi-arguments-value&gt;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>First(,)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{','}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;multi-arguments-value&gt; )</t>
+          <t>First(id &lt;array-indexing&gt; = &lt;array-values&gt; ;)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-arguments-value&gt; )</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;array-assign&gt; )</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>Follow(&lt;array-assign&gt; )</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>First(id &lt;array-indexing&gt; = &lt;array-values&gt; ;)</t>
+          <t>First(&lt;func-body&gt;)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(&lt;func-body&gt;)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'eklabool', 'anda', 'serve', 'pak', 'chika', '}', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;array-assign&gt; )</t>
+          <t>First(&lt;simple-expression&gt;)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-assign&gt; )</t>
+          <t>First(&lt;simple-expression&gt;)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1921,17 +1921,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>First(&lt;func-body&gt;)</t>
+          <t>First(&lt;multi-expression&gt;)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>First(&lt;func-body&gt;)</t>
+          <t>First(&lt;multi-expression&gt;)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'push', 'keri', 'naur', '++', '--', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>First(&lt;simple-expression&gt;)</t>
+          <t>First(&lt;expression-operands&gt; &lt;expression-tail&gt;)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>First(&lt;simple-expression&gt;)</t>
+          <t>First(&lt;expression-operands&gt;)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>First(&lt;multi-expression&gt;)</t>
+          <t>First(( &lt;expression&gt; ) &lt;expression-tail&gt;)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>First(&lt;multi-expression&gt;)</t>
+          <t>First(()</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>First(&lt;expression-operands&gt; &lt;expression-tail&gt;)</t>
+          <t>First(&lt;general-operators&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>First(&lt;expression-operands&gt;)</t>
+          <t>First(&lt;general-operators&gt;)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'&lt;=', '!=', '%', '&gt;', '&lt;', '/', '*', '-', '**', '||', '//', '&gt;=', '==', '&amp;&amp;', '+'}</t>
         </is>
       </c>
     </row>
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>First(( &lt;expression&gt; ) &lt;expression-tail&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;expression-tail&gt; )</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>Follow(&lt;expression-tail&gt; )</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2021,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>First(&lt;general-operators&gt; &lt;expression-operands&gt; &lt;expression-tail&gt;)</t>
+          <t>First(&lt;negative-not-value&gt; &lt;expression-value&gt;)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>First(&lt;general-operators&gt;)</t>
+          <t>First(&lt;negative-not-value&gt;)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'&lt;=', '//', '%', '&gt;=', '||', '-', '!=', '*', '**', '&lt;', '==', '&gt;', '/', '&amp;&amp;', '+'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;expression-tail&gt; )</t>
+          <t>First(-)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Follow(&lt;expression-tail&gt; )</t>
+          <t>First(-)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{'-'}</t>
         </is>
       </c>
     </row>
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>First(&lt;negative-not-value&gt; &lt;expression-value&gt;)</t>
+          <t>First(!)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>First(&lt;negative-not-value&gt;)</t>
+          <t>First(!)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'!'}</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2081,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>First(-)</t>
+          <t>First(λ-λ) U Follow(&lt;negative-not-value&gt; )</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>First(-)</t>
+          <t>Follow(&lt;negative-not-value&gt; )</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'-'}</t>
+          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>First(!)</t>
+          <t>First(&lt;unary-operator&gt; id)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>First(!)</t>
+          <t>First(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'!'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;negative-not-value&gt; )</t>
+          <t>First(id &lt;identifier-tail&gt;)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Follow(&lt;negative-not-value&gt; )</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt; id)</t>
+          <t>First(&lt;general-operands&gt;)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt;)</t>
+          <t>First(&lt;general-operands&gt;)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>First(id &lt;identifier-tail&gt;)</t>
+          <t>First(( &lt;expression&gt; ))</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(()</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -2181,17 +2181,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>First(&lt;general-operands&gt;)</t>
+          <t>First(len ( &lt;len-choice&gt; ))</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>First(&lt;general-operands&gt;)</t>
+          <t>First(len)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'len'}</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>First(( &lt;expression&gt; ))</t>
+          <t>First(chika_literal)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>First(chika_literal)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>First(len ( &lt;len-choice&gt; ))</t>
+          <t>First(id &lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>First(len)</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'len'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>First(chika_literal)</t>
+          <t>First(&lt;func-array&gt;)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>First(chika_literal)</t>
+          <t>First(&lt;func-array&gt;)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'chika_literal'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
         </is>
       </c>
     </row>
@@ -2261,17 +2261,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>First(id &lt;array-indexing&gt;)</t>
+          <t>First(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2281,17 +2281,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>First(&lt;func-array&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;identifier-tail&gt; )</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>First(&lt;func-array&gt;)</t>
+          <t>Follow(&lt;identifier-tail&gt; )</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '(', '[', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt;)</t>
+          <t>First(--)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt;)</t>
+          <t>First(--)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'--'}</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2321,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;identifier-tail&gt; )</t>
+          <t>First(++)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Follow(&lt;identifier-tail&gt; )</t>
+          <t>First(++)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'++'}</t>
         </is>
       </c>
     </row>
@@ -2341,17 +2341,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>First(--)</t>
+          <t>First(&lt;literals&gt;)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>First(--)</t>
+          <t>First(&lt;literals&gt;)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'--'}</t>
+          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2361,17 +2361,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>First(++)</t>
+          <t>First(+)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>First(++)</t>
+          <t>First(+)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'++'}</t>
+          <t>{'+'}</t>
         </is>
       </c>
     </row>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>First(&lt;literals&gt;)</t>
+          <t>First(-)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>First(&lt;literals&gt;)</t>
+          <t>First(-)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'-'}</t>
         </is>
       </c>
     </row>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>First(+)</t>
+          <t>First(%)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>First(+)</t>
+          <t>First(%)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'+'}</t>
+          <t>{'%'}</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2421,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>First(-)</t>
+          <t>First(/)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>First(-)</t>
+          <t>First(/)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'-'}</t>
+          <t>{'/'}</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>First(%)</t>
+          <t>First(*)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>First(%)</t>
+          <t>First(*)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'%'}</t>
+          <t>{'*'}</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>First(/)</t>
+          <t>First(**)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>First(/)</t>
+          <t>First(**)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'/'}</t>
+          <t>{'**'}</t>
         </is>
       </c>
     </row>
@@ -2481,17 +2481,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>First(*)</t>
+          <t>First(//)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>First(*)</t>
+          <t>First(//)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'*'}</t>
+          <t>{'//'}</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2501,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>First(**)</t>
+          <t>First(&gt;)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>First(**)</t>
+          <t>First(&gt;)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'**'}</t>
+          <t>{'&gt;'}</t>
         </is>
       </c>
     </row>
@@ -2521,17 +2521,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>First(//)</t>
+          <t>First(&lt;)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>First(//)</t>
+          <t>First(&lt;)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'//'}</t>
+          <t>{'&lt;'}</t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>First(&gt;)</t>
+          <t>First(&gt;=)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>First(&gt;)</t>
+          <t>First(&gt;=)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'&gt;'}</t>
+          <t>{'&gt;='}</t>
         </is>
       </c>
     </row>
@@ -2561,17 +2561,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>First(&lt;)</t>
+          <t>First(&lt;=)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>First(&lt;)</t>
+          <t>First(&lt;=)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'&lt;'}</t>
+          <t>{'&lt;='}</t>
         </is>
       </c>
     </row>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>First(&gt;=)</t>
+          <t>First(==)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>First(&gt;=)</t>
+          <t>First(==)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'&gt;='}</t>
+          <t>{'=='}</t>
         </is>
       </c>
     </row>
@@ -2601,17 +2601,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>First(&lt;=)</t>
+          <t>First(!=)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>First(&lt;=)</t>
+          <t>First(!=)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'&lt;='}</t>
+          <t>{'!='}</t>
         </is>
       </c>
     </row>
@@ -2621,17 +2621,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>First(==)</t>
+          <t>First(&amp;&amp;)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>First(==)</t>
+          <t>First(&amp;&amp;)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'=='}</t>
+          <t>{'&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>First(!=)</t>
+          <t>First(||)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>First(!=)</t>
+          <t>First(||)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'!='}</t>
+          <t>{'||'}</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2661,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>First(&amp;&amp;)</t>
+          <t>First(id &lt;assign-call-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>First(&amp;&amp;)</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'&amp;&amp;'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2681,17 +2681,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>First(||)</t>
+          <t>First(&lt;input-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>First(||)</t>
+          <t>First(&lt;input-stmts&gt;)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'||'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2701,17 +2701,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>First(id &lt;assign-call-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;output-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(&lt;output-stmts&gt;)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -2721,17 +2721,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>First(&lt;input-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;append-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>First(&lt;input-stmts&gt;)</t>
+          <t>First(&lt;append-stmts&gt;)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -2741,17 +2741,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>First(&lt;output-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;delete-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>First(&lt;output-stmts&gt;)</t>
+          <t>First(&lt;delete-stmts&gt;)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2761,17 +2761,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>First(&lt;append-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;conditional-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>First(&lt;append-stmts&gt;)</t>
+          <t>First(&lt;conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -2781,17 +2781,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>First(&lt;delete-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;loop-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>First(&lt;delete-stmts&gt;)</t>
+          <t>First(&lt;loop-stmts&gt;)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -2801,17 +2801,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>First(&lt;conditional-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;switch-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>First(&lt;conditional-stmts&gt;)</t>
+          <t>First(&lt;switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -2821,17 +2821,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>First(&lt;loop-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;return-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>First(&lt;loop-stmts&gt;)</t>
+          <t>First(&lt;return-stmts&gt;)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>First(&lt;switch-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;unary-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>First(&lt;switch-stmts&gt;)</t>
+          <t>First(&lt;unary-stmts&gt;)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'id', '--', '++'}</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>First(&lt;return-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;local-dec&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>First(&lt;return-stmts&gt;)</t>
+          <t>First(&lt;local-dec&gt;)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2881,17 +2881,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>First(&lt;unary-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;statements&gt; )</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>First(&lt;unary-stmts&gt;)</t>
+          <t>Follow(&lt;statements&gt; )</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'++', 'id', '--'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2901,17 +2901,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec&gt; &lt;statements&gt;)</t>
+          <t>First(id &lt;assign-call-stmts&gt; &lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec&gt;)</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -2921,17 +2921,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;statements&gt; )</t>
+          <t>First(&lt;input-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Follow(&lt;statements&gt; )</t>
+          <t>First(&lt;input-stmts&gt;)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>First(id &lt;assign-call-stmts&gt; &lt;statements&gt;)</t>
+          <t>First(&lt;output-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First(&lt;output-stmts&gt;)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -2961,17 +2961,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>First(&lt;input-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;append-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>First(&lt;input-stmts&gt;)</t>
+          <t>First(&lt;append-stmts&gt;)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -2981,17 +2981,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>First(&lt;output-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;delete-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>First(&lt;output-stmts&gt;)</t>
+          <t>First(&lt;delete-stmts&gt;)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>First(&lt;append-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;loop-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>First(&lt;append-stmts&gt;)</t>
+          <t>First(&lt;loop-stmts&gt;)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'forda', 'keri'}</t>
         </is>
       </c>
     </row>
@@ -3021,17 +3021,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>First(&lt;delete-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;loop-conditional-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>First(&lt;delete-stmts&gt;)</t>
+          <t>First(&lt;loop-conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3041,17 +3041,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>First(&lt;loop-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;loop-switch-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>First(&lt;loop-stmts&gt;)</t>
+          <t>First(&lt;loop-switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -3061,17 +3061,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditional-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;return-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditional-stmts&gt;)</t>
+          <t>First(&lt;return-stmts&gt;)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>First(&lt;loop-switch-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;unary-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>First(&lt;loop-switch-stmts&gt;)</t>
+          <t>First(&lt;unary-stmts&gt;)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'id', '--', '++'}</t>
         </is>
       </c>
     </row>
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>First(&lt;return-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;control-flow-stmts&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>First(&lt;return-stmts&gt;)</t>
+          <t>First(&lt;control-flow-stmts&gt;)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3121,17 +3121,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>First(&lt;unary-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;local-dec&gt; &lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>First(&lt;unary-stmts&gt;)</t>
+          <t>First(&lt;local-dec&gt;)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'++', 'id', '--'}</t>
+          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3141,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>First(&lt;control-flow-stmts&gt; &lt;loop-body&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;loop-body&gt; )</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>First(&lt;control-flow-stmts&gt;)</t>
+          <t>Follow(&lt;loop-body&gt; )</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3161,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec&gt; &lt;loop-body&gt;)</t>
+          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>First(&lt;local-dec&gt;)</t>
+          <t>First(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3181,17 +3181,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;loop-body&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;multi-loop-body&gt; )</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-body&gt; )</t>
+          <t>Follow(&lt;multi-loop-body&gt; )</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
+          <t>First(&lt;array-indexing&gt; &lt;assignment-operators&gt; &lt;assignment-values&gt; ;)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt;)</t>
+          <t>First(&lt;array-indexing&gt;)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;multi-loop-body&gt; )</t>
+          <t>First(( &lt;arguments&gt; ) ;)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-loop-body&gt; )</t>
+          <t>First(()</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -3241,17 +3241,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>First(&lt;array-indexing&gt; &lt;assignment-operators&gt; &lt;assignment-values&gt; ;)</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>First(&lt;array-indexing&gt;)</t>
+          <t>First(=)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'||', 'to', '[', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -3261,17 +3261,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>First(( &lt;arguments&gt; ) ;)</t>
+          <t>First(+=)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>First(+=)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'+='}</t>
         </is>
       </c>
     </row>
@@ -3281,17 +3281,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>First(-=)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>First(=)</t>
+          <t>First(-=)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'-='}</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>First(+=)</t>
+          <t>First(%=)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>First(+=)</t>
+          <t>First(%=)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'+='}</t>
+          <t>{'%='}</t>
         </is>
       </c>
     </row>
@@ -3321,17 +3321,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>First(-=)</t>
+          <t>First(/=)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>First(-=)</t>
+          <t>First(/=)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'-='}</t>
+          <t>{'/='}</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>First(%=)</t>
+          <t>First(//=)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>First(%=)</t>
+          <t>First(//=)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'%='}</t>
+          <t>{'//='}</t>
         </is>
       </c>
     </row>
@@ -3361,17 +3361,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>First(/=)</t>
+          <t>First(*=)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>First(/=)</t>
+          <t>First(*=)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'/='}</t>
+          <t>{'*='}</t>
         </is>
       </c>
     </row>
@@ -3381,17 +3381,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>First(//=)</t>
+          <t>First(**=)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>First(//=)</t>
+          <t>First(**=)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'//='}</t>
+          <t>{'**='}</t>
         </is>
       </c>
     </row>
@@ -3401,17 +3401,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>First(*=)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>First(*=)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'*='}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>First(**=)</t>
+          <t>First({ &lt;array-elements&gt; })</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>First(**=)</t>
+          <t>First({)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'**='}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;input-type&gt;)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>First({ &lt;array-elements&gt; })</t>
+          <t>First(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>First({)</t>
+          <t>First(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'{'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>First(&lt;input-type&gt; id = givenchy ( &lt;givenchy-values&gt; ) ;)</t>
+          <t>First(λ-λ) U Follow(&lt;input-type&gt; )</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>First(&lt;input-type&gt;)</t>
+          <t>Follow(&lt;input-type&gt; )</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'id', 'eklabool'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3501,17 +3501,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt;)</t>
+          <t>First(&lt;expression-operands&gt;)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt;)</t>
+          <t>First(&lt;expression-operands&gt;)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;input-type&gt; )</t>
+          <t>First(serve ( &lt;output-values&gt; ) ;)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Follow(&lt;input-type&gt; )</t>
+          <t>First(serve)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'serve'}</t>
         </is>
       </c>
     </row>
@@ -3541,17 +3541,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>First(&lt;expression-operands&gt;)</t>
+          <t>First(adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>First(&lt;expression-operands&gt;)</t>
+          <t>First(adele)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'adele'}</t>
         </is>
       </c>
     </row>
@@ -3561,17 +3561,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>First(serve ( &lt;output-values&gt; ) ;)</t>
+          <t>First(adelete ( id &lt;array-indexing&gt; ) ;)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>First(serve)</t>
+          <t>First(adelete)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'serve'}</t>
+          <t>{'adelete'}</t>
         </is>
       </c>
     </row>
@@ -3581,17 +3581,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>First(adele ( id &lt;array-indexing&gt; , &lt;assignment-values&gt; ) ;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>First(adele)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'adele'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3601,17 +3601,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>First(adelete ( id &lt;array-indexing&gt; ) ;)</t>
+          <t>First(pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>First(adelete)</t>
+          <t>First(pak)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'adelete'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>First(pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;)</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>First(pak)</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;conditional-body&gt; )</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>Follow(&lt;conditional-body&gt; )</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3681,17 +3681,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(pak ( &lt;condition&gt; ) { &lt;loop-conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(pak)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'pak'}</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3701,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;conditional-body&gt; )</t>
+          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Follow(&lt;conditional-body&gt; )</t>
+          <t>First(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3721,17 +3721,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>First(pak ( &lt;condition&gt; ) { &lt;loop-conditional-body&gt; } &lt;ganern-pak-statement&gt; &lt;ganern-case&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;loop-conditional-body&gt; )</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>First(pak)</t>
+          <t>Follow(&lt;loop-conditional-body&gt; )</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{'pak'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
+          <t>First(ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt;)</t>
+          <t>First(ganern)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'ganern'}</t>
         </is>
       </c>
     </row>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;loop-conditional-body&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;ganern-pak-statement&gt; )</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-conditional-body&gt; )</t>
+          <t>Follow(&lt;ganern-pak-statement&gt; )</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>First(ganern pak ( &lt;condition&gt; ) { &lt;conditional-body&gt; } &lt;ganern-pak-statement&gt;)</t>
+          <t>First(ganern { &lt;conditional-body&gt; })</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3801,17 +3801,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;ganern-pak-statement&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;ganern-case&gt; )</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Follow(&lt;ganern-pak-statement&gt; )</t>
+          <t>Follow(&lt;ganern-case&gt; )</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3821,17 +3821,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>First(ganern { &lt;conditional-body&gt; })</t>
+          <t>First(&lt;forda-statement&gt;)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>First(ganern)</t>
+          <t>First(&lt;forda-statement&gt;)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{'ganern'}</t>
+          <t>{'forda'}</t>
         </is>
       </c>
     </row>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;ganern-case&gt; )</t>
+          <t>First(&lt;keri-statement&gt;)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Follow(&lt;ganern-case&gt; )</t>
+          <t>First(&lt;keri-statement&gt;)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>First(&lt;forda-statement&gt;)</t>
+          <t>First(forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; })</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>First(&lt;forda-statement&gt;)</t>
+          <t>First(forda)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>First(&lt;keri-statement&gt;)</t>
+          <t>First(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>First(&lt;keri-statement&gt;)</t>
+          <t>First(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3901,17 +3901,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>First(forda ( &lt;loop-type-init&gt; id from &lt;start-value&gt; to &lt;end-value&gt; &lt;step-case&gt; ) { &lt;for-loop-body&gt; })</t>
+          <t>First(λ-λ) U Follow(&lt;loop-type-init&gt; )</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>First(forda)</t>
+          <t>Follow(&lt;loop-type-init&gt; )</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{'forda'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt;)</t>
+          <t>First(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>First(&lt;data-type&gt;)</t>
+          <t>First(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', 'chika', 'anda'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;loop-type-init&gt; )</t>
+          <t>First(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-type-init&gt; )</t>
+          <t>First(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -3961,17 +3961,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditions&gt;)</t>
+          <t>First(step &lt;update&gt;)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditions&gt;)</t>
+          <t>First(step)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'step'}</t>
         </is>
       </c>
     </row>
@@ -3981,17 +3981,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditions&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;step-case&gt; )</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>First(&lt;loop-conditions&gt;)</t>
+          <t>Follow(&lt;step-case&gt; )</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -4001,17 +4001,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>First(step &lt;update&gt;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>First(step)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'step'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;step-case&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;update&gt; )</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Follow(&lt;step-case&gt; )</t>
+          <t>Follow(&lt;update&gt; )</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;update&gt; )</t>
+          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Follow(&lt;update&gt; )</t>
+          <t>First(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;for-loop-body&gt; )</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>Follow(&lt;for-loop-body&gt; )</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4101,17 +4101,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
+          <t>First(keri &lt;keri-case&gt;)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt;)</t>
+          <t>First(keri)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'keri'}</t>
         </is>
       </c>
     </row>
@@ -4121,17 +4121,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;for-loop-body&gt; )</t>
+          <t>First(( &lt;condition&gt; ) { &lt;while-loop-body&gt; })</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Follow(&lt;for-loop-body&gt; )</t>
+          <t>First(()</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'('}</t>
         </is>
       </c>
     </row>
@@ -4141,17 +4141,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>First(keri &lt;keri-case&gt;)</t>
+          <t>First(lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; ))</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>First(keri)</t>
+          <t>First(lang)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{'keri'}</t>
+          <t>{'lang'}</t>
         </is>
       </c>
     </row>
@@ -4161,17 +4161,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>First(( &lt;condition&gt; ) { &lt;while-loop-body&gt; })</t>
+          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>First(()</t>
+          <t>First(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'('}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>First(lang { &lt;while-loop-body&gt; } keri ( &lt;condition&gt; ))</t>
+          <t>First(λ-λ) U Follow(&lt;while-loop-body&gt; )</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>First(lang)</t>
+          <t>Follow(&lt;while-loop-body&gt; )</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{'lang'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4201,17 +4201,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
+          <t>First(versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; })</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt;)</t>
+          <t>First(versa)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -4221,17 +4221,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;while-loop-body&gt; )</t>
+          <t>First(betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Follow(&lt;while-loop-body&gt; )</t>
+          <t>First(betsung)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>First(versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt; &lt;ditech-case&gt; })</t>
+          <t>First(λ-λ) U Follow(&lt;multi-cases&gt; )</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>First(versa)</t>
+          <t>Follow(&lt;multi-cases&gt; )</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4261,17 +4261,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>First(betsung &lt;switch-values&gt; : &lt;switch-statements&gt; &lt;amaccana-case&gt; &lt;multi-cases&gt;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>First(betsung)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'betsung'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4281,17 +4281,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;multi-cases&gt; )</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-cases&gt; )</t>
+          <t>First(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4301,17 +4301,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt; &lt;ditech-case&gt; })</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(versa)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'versa'}</t>
         </is>
       </c>
     </row>
@@ -4321,17 +4321,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>First(&lt;statements&gt;)</t>
+          <t>First(betsung)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'betsung'}</t>
         </is>
       </c>
     </row>
@@ -4341,17 +4341,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>First(versa ( &lt;switch-values&gt; ) { betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt; &lt;ditech-case&gt; })</t>
+          <t>First(λ-λ) U Follow(&lt;loop-multi-cases&gt; )</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>First(versa)</t>
+          <t>Follow(&lt;loop-multi-cases&gt; )</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'versa'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4361,17 +4361,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>First(betsung &lt;switch-values&gt; : &lt;loop-switch-statements&gt; &lt;loop-multi-cases&gt;)</t>
+          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>First(betsung)</t>
+          <t>First(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'betsung'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4381,17 +4381,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;loop-multi-cases&gt; )</t>
+          <t>First(amaccana ;)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-multi-cases&gt; )</t>
+          <t>First(amaccana)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4401,17 +4401,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt; &lt;multi-loop-body&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;amaccana-case&gt; )</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>First(&lt;loop-body&gt;)</t>
+          <t>Follow(&lt;amaccana-case&gt; )</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>First(amaccana ;)</t>
+          <t>First(ditech : &lt;switch-statements&gt;)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>First(amaccana)</t>
+          <t>First(ditech)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4441,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;amaccana-case&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;ditech-case&gt; )</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Follow(&lt;amaccana-case&gt; )</t>
+          <t>Follow(&lt;ditech-case&gt; )</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -4461,17 +4461,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>First(ditech : &lt;switch-statements&gt;)</t>
+          <t>First(gogogo ;)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>First(ditech)</t>
+          <t>First(gogogo)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{'ditech'}</t>
+          <t>{'gogogo'}</t>
         </is>
       </c>
     </row>
@@ -4481,17 +4481,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;ditech-case&gt; )</t>
+          <t>First(amaccana ;)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Follow(&lt;ditech-case&gt; )</t>
+          <t>First(amaccana)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -4501,17 +4501,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>First(gogogo ;)</t>
+          <t>First(λ-λ) U Follow(&lt;control-flow-stmts&gt; )</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>First(gogogo)</t>
+          <t>Follow(&lt;control-flow-stmts&gt; )</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'gogogo'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4521,17 +4521,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>First(amaccana ;)</t>
+          <t>First(push &lt;push-values&gt; ;)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>First(amaccana)</t>
+          <t>First(push)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>{'amaccana'}</t>
+          <t>{'push'}</t>
         </is>
       </c>
     </row>
@@ -4541,17 +4541,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;control-flow-stmts&gt; )</t>
+          <t>First(λ-λ) U Follow(&lt;return-stmts&gt; )</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Follow(&lt;control-flow-stmts&gt; )</t>
+          <t>Follow(&lt;return-stmts&gt; )</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>First(push &lt;push-values&gt; ;)</t>
+          <t>First(&lt;unary-operator&gt; id ;)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>First(push)</t>
+          <t>First(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'push'}</t>
+          <t>{'--', '++'}</t>
         </is>
       </c>
     </row>
@@ -4581,17 +4581,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>First(λ-λ) U Follow(&lt;return-stmts&gt; )</t>
+          <t>First(id &lt;unary-operator&gt; ;)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Follow(&lt;return-stmts&gt; )</t>
+          <t>First(id)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4601,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt; id ;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>First(&lt;unary-operator&gt;)</t>
+          <t>First(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'++', '--'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -4621,17 +4621,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>First(id &lt;unary-operator&gt; ;)</t>
+          <t>First({ &lt;array-elements&gt; })</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>First(id)</t>
+          <t>First({)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'{'}</t>
         </is>
       </c>
     </row>
@@ -4641,55 +4641,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(λ-λ) U Follow(&lt;push-values&gt; )</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>Follow(&lt;push-values&gt; )</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
-        <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>First({ &lt;array-elements&gt; })</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>First({)</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>{'{'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>First(λ-λ) U Follow(&lt;push-values&gt; )</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Follow(&lt;push-values&gt; )</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
         <is>
           <t>{';'}</t>
         </is>

--- a/Files/cfg/predict_set_docu.xlsx
+++ b/Files/cfg/predict_set_docu.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '[', '(', ';'}</t>
+          <t>{';', '=', '(', ')', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '[', '(', ';'}</t>
+          <t>{';', '=', '(', ')', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '(', ';'}</t>
+          <t>{'=', '(', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
+          <t>{'&amp;&amp;', '=', '&gt;', '&lt;', '**', '*=', '&gt;=', '%', '!=', '==', ']', '&lt;=', '-=', '/', '}', '//', 'step', ')', '/=', '||', '*', '-', ';', ':', '//=', '+', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '(', '**', '&gt;=', '%', '!=', 'to', '==', ']', '&lt;=', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '[', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'shimenet', 'eklabool', 'anda', 'andamhie', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'shimenet', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika', 'naur'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'eklabool', 'anda', 'serve', 'pak', 'chika', '}', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'id', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '%', '&gt;', '&lt;', '/', '*', '-', '**', '||', '//', '&gt;=', '==', '&amp;&amp;', '+'}</t>
+          <t>{'&amp;&amp;', '&gt;', '//', '&lt;', '**', '||', '*', '-', '%', '&gt;=', '!=', '==', '+', '&lt;=', '/'}</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
+          <t>{'--', 'len', '(', '++', 'korik', 'eme', 'anda_literal', 'id', 'andamhie_literal', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
+          <t>{'anda_literal', 'korik', 'andamhie_literal', 'eme', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', '[', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':', '('}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '(', '**', '&gt;=', '%', '!=', 'to', '==', ']', '&lt;=', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', '['}</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'anda_literal', 'chika_literal', 'andamhie_literal', 'eme', 'korik'}</t>
+          <t>{'anda_literal', 'korik', 'andamhie_literal', 'eme', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'forda', 'keri'}</t>
+          <t>{'keri', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'push', 'andamhie', 'id', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'id', '--', '++'}</t>
+          <t>{'++', 'id', '--'}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'andamhie', 'adelete', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'}', 'betsung', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '[', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '[', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'id', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'id', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3581,17 +3581,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>First(&lt;expression&gt;)</t>
+          <t>First(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', 'ganern', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
+          <t>{'anda', 'chika', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>{'--', '++'}</t>
+          <t>{'++', '--'}</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
